--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H2">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I2">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J2">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.602918333333334</v>
+        <v>7.162265000000001</v>
       </c>
       <c r="N2">
-        <v>22.808755</v>
+        <v>21.486795</v>
       </c>
       <c r="O2">
-        <v>0.4364663819587059</v>
+        <v>0.4597163377432319</v>
       </c>
       <c r="P2">
-        <v>0.4364663819587059</v>
+        <v>0.4597163377432319</v>
       </c>
       <c r="Q2">
-        <v>17.21485968443389</v>
+        <v>29.105389389945</v>
       </c>
       <c r="R2">
-        <v>154.933737159905</v>
+        <v>261.948504509505</v>
       </c>
       <c r="S2">
-        <v>0.17960490678713</v>
+        <v>0.2328467130958114</v>
       </c>
       <c r="T2">
-        <v>0.17960490678713</v>
+        <v>0.2328467130958115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H3">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I3">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J3">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.397564000000001</v>
       </c>
       <c r="O3">
-        <v>0.1798309797402525</v>
+        <v>0.2010636628584039</v>
       </c>
       <c r="P3">
-        <v>0.1798309797402525</v>
+        <v>0.2010636628584039</v>
       </c>
       <c r="Q3">
-        <v>7.092791589698223</v>
+        <v>12.729667665044</v>
       </c>
       <c r="R3">
-        <v>63.835124307284</v>
+        <v>114.567008985396</v>
       </c>
       <c r="S3">
-        <v>0.07400003227910022</v>
+        <v>0.1018389149478797</v>
       </c>
       <c r="T3">
-        <v>0.07400003227910019</v>
+        <v>0.1018389149478797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H4">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I4">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J4">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.986266666666666</v>
+        <v>4.518526666666666</v>
       </c>
       <c r="N4">
-        <v>17.9588</v>
+        <v>13.55558</v>
       </c>
       <c r="O4">
-        <v>0.3436580585095507</v>
+        <v>0.2900256456854267</v>
       </c>
       <c r="P4">
-        <v>0.3436580585095507</v>
+        <v>0.2900256456854267</v>
       </c>
       <c r="Q4">
-        <v>13.55436638697778</v>
+        <v>18.36199555618</v>
       </c>
       <c r="R4">
-        <v>121.9892974828</v>
+        <v>165.25796000562</v>
       </c>
       <c r="S4">
-        <v>0.1414144963198873</v>
+        <v>0.146898234339152</v>
       </c>
       <c r="T4">
-        <v>0.1414144963198872</v>
+        <v>0.146898234339152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H5">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I5">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J5">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6975466666666668</v>
+        <v>0.7664356666666667</v>
       </c>
       <c r="N5">
-        <v>2.09264</v>
+        <v>2.299307</v>
       </c>
       <c r="O5">
-        <v>0.04004457979149087</v>
+        <v>0.04919435371293752</v>
       </c>
       <c r="P5">
-        <v>0.04004457979149087</v>
+        <v>0.04919435371293752</v>
       </c>
       <c r="Q5">
-        <v>1.579415622204445</v>
+        <v>3.114574582297</v>
       </c>
       <c r="R5">
-        <v>14.21474059984</v>
+        <v>28.031171240673</v>
       </c>
       <c r="S5">
-        <v>0.01647825197556902</v>
+        <v>0.02491698167866314</v>
       </c>
       <c r="T5">
-        <v>0.01647825197556901</v>
+        <v>0.02491698167866315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.267686</v>
       </c>
       <c r="I6">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J6">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.602918333333334</v>
+        <v>7.162265000000001</v>
       </c>
       <c r="N6">
-        <v>22.808755</v>
+        <v>21.486795</v>
       </c>
       <c r="O6">
-        <v>0.4364663819587059</v>
+        <v>0.4597163377432319</v>
       </c>
       <c r="P6">
-        <v>0.4364663819587059</v>
+        <v>0.4597163377432319</v>
       </c>
       <c r="Q6">
-        <v>15.88423493232556</v>
+        <v>14.96360935626333</v>
       </c>
       <c r="R6">
-        <v>142.95811439093</v>
+        <v>134.67248420637</v>
       </c>
       <c r="S6">
-        <v>0.165722322847909</v>
+        <v>0.1197107246350513</v>
       </c>
       <c r="T6">
-        <v>0.165722322847909</v>
+        <v>0.1197107246350513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.267686</v>
       </c>
       <c r="I7">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J7">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>9.397564000000001</v>
       </c>
       <c r="O7">
-        <v>0.1798309797402525</v>
+        <v>0.2010636628584039</v>
       </c>
       <c r="P7">
-        <v>0.1798309797402525</v>
+        <v>0.2010636628584039</v>
       </c>
       <c r="Q7">
         <v>6.544553368544889</v>
@@ -883,10 +883,10 @@
         <v>58.90098031690401</v>
       </c>
       <c r="S7">
-        <v>0.06828019044405918</v>
+        <v>0.05235723597885449</v>
       </c>
       <c r="T7">
-        <v>0.06828019044405917</v>
+        <v>0.05235723597885451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.267686</v>
       </c>
       <c r="I8">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J8">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.986266666666666</v>
+        <v>4.518526666666666</v>
       </c>
       <c r="N8">
-        <v>17.9588</v>
+        <v>13.55558</v>
       </c>
       <c r="O8">
-        <v>0.3436580585095507</v>
+        <v>0.2900256456854267</v>
       </c>
       <c r="P8">
-        <v>0.3436580585095507</v>
+        <v>0.2900256456854267</v>
       </c>
       <c r="Q8">
-        <v>12.50667992631111</v>
+        <v>9.440235443097777</v>
       </c>
       <c r="R8">
-        <v>112.5601193368</v>
+        <v>84.96211898788</v>
       </c>
       <c r="S8">
-        <v>0.1304838449779932</v>
+        <v>0.07552305053631347</v>
       </c>
       <c r="T8">
-        <v>0.1304838449779932</v>
+        <v>0.07552305053631349</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.267686</v>
       </c>
       <c r="I9">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J9">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6975466666666668</v>
+        <v>0.7664356666666667</v>
       </c>
       <c r="N9">
-        <v>2.09264</v>
+        <v>2.299307</v>
       </c>
       <c r="O9">
-        <v>0.04004457979149087</v>
+        <v>0.04919435371293752</v>
       </c>
       <c r="P9">
-        <v>0.04004457979149087</v>
+        <v>0.04919435371293752</v>
       </c>
       <c r="Q9">
-        <v>1.457334492337778</v>
+        <v>1.601259365955778</v>
       </c>
       <c r="R9">
-        <v>13.11601043104</v>
+        <v>14.411334293602</v>
       </c>
       <c r="S9">
-        <v>0.01520456340928947</v>
+        <v>0.01281027287356936</v>
       </c>
       <c r="T9">
-        <v>0.01520456340928947</v>
+        <v>0.01281027287356936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H10">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I10">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J10">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.602918333333334</v>
+        <v>7.162265000000001</v>
       </c>
       <c r="N10">
-        <v>22.808755</v>
+        <v>21.486795</v>
       </c>
       <c r="O10">
-        <v>0.4364663819587059</v>
+        <v>0.4597163377432319</v>
       </c>
       <c r="P10">
-        <v>0.4364663819587059</v>
+        <v>0.4597163377432319</v>
       </c>
       <c r="Q10">
-        <v>7.286885292665556</v>
+        <v>11.37622897376167</v>
       </c>
       <c r="R10">
-        <v>65.58196763399</v>
+        <v>102.386060763855</v>
       </c>
       <c r="S10">
-        <v>0.07602503754016188</v>
+        <v>0.09101123810701732</v>
       </c>
       <c r="T10">
-        <v>0.07602503754016185</v>
+        <v>0.09101123810701733</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H11">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I11">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J11">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.397564000000001</v>
       </c>
       <c r="O11">
-        <v>0.1798309797402525</v>
+        <v>0.2010636628584039</v>
       </c>
       <c r="P11">
-        <v>0.1798309797402525</v>
+        <v>0.2010636628584039</v>
       </c>
       <c r="Q11">
-        <v>3.002310774896889</v>
+        <v>4.975560099101778</v>
       </c>
       <c r="R11">
-        <v>27.020796974072</v>
+        <v>44.780040891916</v>
       </c>
       <c r="S11">
-        <v>0.03132350520166812</v>
+        <v>0.03980509586608585</v>
       </c>
       <c r="T11">
-        <v>0.03132350520166811</v>
+        <v>0.03980509586608585</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H12">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I12">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J12">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.986266666666666</v>
+        <v>4.518526666666666</v>
       </c>
       <c r="N12">
-        <v>17.9588</v>
+        <v>13.55558</v>
       </c>
       <c r="O12">
-        <v>0.3436580585095507</v>
+        <v>0.2900256456854267</v>
       </c>
       <c r="P12">
-        <v>0.3436580585095507</v>
+        <v>0.2900256456854267</v>
       </c>
       <c r="Q12">
-        <v>5.73743352471111</v>
+        <v>7.177030448335555</v>
       </c>
       <c r="R12">
-        <v>51.6369017224</v>
+        <v>64.59327403501999</v>
       </c>
       <c r="S12">
-        <v>0.05985940241702183</v>
+        <v>0.05741713080330136</v>
       </c>
       <c r="T12">
-        <v>0.05985940241702183</v>
+        <v>0.05741713080330137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H13">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I13">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J13">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6975466666666668</v>
+        <v>0.7664356666666667</v>
       </c>
       <c r="N13">
-        <v>2.09264</v>
+        <v>2.299307</v>
       </c>
       <c r="O13">
-        <v>0.04004457979149087</v>
+        <v>0.04919435371293752</v>
       </c>
       <c r="P13">
-        <v>0.04004457979149087</v>
+        <v>0.04919435371293752</v>
       </c>
       <c r="Q13">
-        <v>0.6685515118577778</v>
+        <v>1.217372945242556</v>
       </c>
       <c r="R13">
-        <v>6.016963606720001</v>
+        <v>10.956356507183</v>
       </c>
       <c r="S13">
-        <v>0.006975086301643573</v>
+        <v>0.009739134052246119</v>
       </c>
       <c r="T13">
-        <v>0.006975086301643571</v>
+        <v>0.009739134052246121</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H14">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I14">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J14">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.602918333333334</v>
+        <v>7.162265000000001</v>
       </c>
       <c r="N14">
-        <v>22.808755</v>
+        <v>21.486795</v>
       </c>
       <c r="O14">
-        <v>0.4364663819587059</v>
+        <v>0.4597163377432319</v>
       </c>
       <c r="P14">
-        <v>0.4364663819587059</v>
+        <v>0.4597163377432319</v>
       </c>
       <c r="Q14">
-        <v>1.448665127845556</v>
+        <v>2.01842654871</v>
       </c>
       <c r="R14">
-        <v>13.03798615061</v>
+        <v>18.16583893839</v>
       </c>
       <c r="S14">
-        <v>0.01511411478350502</v>
+        <v>0.01614766190535183</v>
       </c>
       <c r="T14">
-        <v>0.01511411478350501</v>
+        <v>0.01614766190535183</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H15">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I15">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J15">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.397564000000001</v>
       </c>
       <c r="O15">
-        <v>0.1798309797402525</v>
+        <v>0.2010636628584039</v>
       </c>
       <c r="P15">
-        <v>0.1798309797402525</v>
+        <v>0.2010636628584039</v>
       </c>
       <c r="Q15">
-        <v>0.5968727032008889</v>
+        <v>0.882788367032</v>
       </c>
       <c r="R15">
-        <v>5.371854328808</v>
+        <v>7.945095303288001</v>
       </c>
       <c r="S15">
-        <v>0.006227251815425021</v>
+        <v>0.007062416065583805</v>
       </c>
       <c r="T15">
-        <v>0.006227251815425021</v>
+        <v>0.007062416065583807</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H16">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I16">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J16">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.986266666666666</v>
+        <v>4.518526666666666</v>
       </c>
       <c r="N16">
-        <v>17.9588</v>
+        <v>13.55558</v>
       </c>
       <c r="O16">
-        <v>0.3436580585095507</v>
+        <v>0.2900256456854267</v>
       </c>
       <c r="P16">
-        <v>0.3436580585095507</v>
+        <v>0.2900256456854267</v>
       </c>
       <c r="Q16">
-        <v>1.140627241511111</v>
+        <v>1.27338407404</v>
       </c>
       <c r="R16">
-        <v>10.2656451736</v>
+        <v>11.46045666636</v>
       </c>
       <c r="S16">
-        <v>0.01190031479464837</v>
+        <v>0.01018723000665986</v>
       </c>
       <c r="T16">
-        <v>0.01190031479464836</v>
+        <v>0.01018723000665987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H17">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I17">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J17">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6975466666666668</v>
+        <v>0.7664356666666667</v>
       </c>
       <c r="N17">
-        <v>2.09264</v>
+        <v>2.299307</v>
       </c>
       <c r="O17">
-        <v>0.04004457979149087</v>
+        <v>0.04919435371293752</v>
       </c>
       <c r="P17">
-        <v>0.04004457979149087</v>
+        <v>0.04919435371293752</v>
       </c>
       <c r="Q17">
-        <v>0.1329110068977778</v>
+        <v>0.215992300966</v>
       </c>
       <c r="R17">
-        <v>1.19619906208</v>
+        <v>1.943930708694</v>
       </c>
       <c r="S17">
-        <v>0.001386678104988806</v>
+        <v>0.001727965108458884</v>
       </c>
       <c r="T17">
-        <v>0.001386678104988805</v>
+        <v>0.001727965108458884</v>
       </c>
     </row>
   </sheetData>
